--- a/Code/Results/Cases/Case_1_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_172/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.372825599817759</v>
+        <v>1.533923325814044</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01850081022066163</v>
+        <v>0.006819927177946994</v>
       </c>
       <c r="E2">
-        <v>1.226744297336964</v>
+        <v>0.6256421266332808</v>
       </c>
       <c r="F2">
-        <v>0.6668639324919496</v>
+        <v>0.4829650877107099</v>
       </c>
       <c r="G2">
-        <v>0.0007534823485570646</v>
+        <v>0.002364016048753207</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7373794928785529</v>
+        <v>0.7974680776926135</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.458837096399236</v>
+        <v>0.5386825466486869</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.889681868401937</v>
+        <v>1.511383579394447</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.938548960264711</v>
+        <v>1.39310769697704</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01625240288271712</v>
+        <v>0.006082749589296554</v>
       </c>
       <c r="E3">
-        <v>1.097455497498558</v>
+        <v>0.5840387343000941</v>
       </c>
       <c r="F3">
-        <v>0.5837669742707448</v>
+        <v>0.4685925045170052</v>
       </c>
       <c r="G3">
-        <v>0.000758677012097349</v>
+        <v>0.002367478910217889</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6894527427029971</v>
+        <v>0.7922380670662861</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.268897829260567</v>
+        <v>0.4779951572535026</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.658435304051409</v>
+        <v>1.477306341264352</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.672395017677843</v>
+        <v>1.306397238246859</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01487258327601282</v>
+        <v>0.00562887778522736</v>
       </c>
       <c r="E4">
-        <v>1.018069712956745</v>
+        <v>0.5585696683258448</v>
       </c>
       <c r="F4">
-        <v>0.534366203222703</v>
+        <v>0.4602603782579351</v>
       </c>
       <c r="G4">
-        <v>0.0007619653822874652</v>
+        <v>0.002369718658227406</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6619255647451325</v>
+        <v>0.7898031826238565</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.152469670722496</v>
+        <v>0.4406296734420891</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.521828613662507</v>
+        <v>1.458037223939186</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.564013863256434</v>
+        <v>1.271001544175704</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01431029563059028</v>
+        <v>0.005443627510953064</v>
       </c>
       <c r="E5">
-        <v>0.9857191738443163</v>
+        <v>0.5482114612186422</v>
       </c>
       <c r="F5">
-        <v>0.5146038855798452</v>
+        <v>0.4569881227318788</v>
       </c>
       <c r="G5">
-        <v>0.0007633309325451263</v>
+        <v>0.002370660012201982</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6511568683860816</v>
+        <v>0.7890063475565299</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.105054195107812</v>
+        <v>0.4253779117987051</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.467387006058146</v>
+        <v>1.450598296548208</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.546020749690115</v>
+        <v>1.265120527843578</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01421692340052871</v>
+        <v>0.005412849644660156</v>
       </c>
       <c r="E6">
-        <v>0.9803473966698277</v>
+        <v>0.546492784095733</v>
       </c>
       <c r="F6">
-        <v>0.5113435597930192</v>
+        <v>0.4564521837111997</v>
       </c>
       <c r="G6">
-        <v>0.0007635592406728923</v>
+        <v>0.002370818055627005</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6493950338845877</v>
+        <v>0.7888858410223989</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.097182167954657</v>
+        <v>0.422843884501674</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.458417570024068</v>
+        <v>1.449387959291357</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.670933090219876</v>
+        <v>1.305920121524139</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01486500028802951</v>
+        <v>0.005626380600133984</v>
       </c>
       <c r="E7">
-        <v>1.017633422349547</v>
+        <v>0.5584298881536256</v>
       </c>
       <c r="F7">
-        <v>0.534098237550289</v>
+        <v>0.4602157498134716</v>
       </c>
       <c r="G7">
-        <v>0.0007619836944016305</v>
+        <v>0.002369731237365192</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6617785538213425</v>
+        <v>0.7897916448127731</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.151830112059088</v>
+        <v>0.4404240829345838</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.521089589133481</v>
+        <v>1.457935229638025</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.222956017893921</v>
+        <v>1.485423034714415</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01772529610189366</v>
+        <v>0.006566016825079402</v>
       </c>
       <c r="E8">
-        <v>1.182165938368627</v>
+        <v>0.6112825530356503</v>
       </c>
       <c r="F8">
-        <v>0.6378515628912851</v>
+        <v>0.4779067115458275</v>
       </c>
       <c r="G8">
-        <v>0.0007552533684088263</v>
+        <v>0.002365186532596751</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7204419787495837</v>
+        <v>0.7955037300308589</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.393293439392011</v>
+        <v>0.5177794800370634</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.808753167515334</v>
+        <v>1.499288772734332</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.311668852181299</v>
+        <v>1.835375289934859</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02334960180340317</v>
+        <v>0.008398076470875537</v>
       </c>
       <c r="E9">
-        <v>1.504823361067693</v>
+        <v>0.7154600416311467</v>
       </c>
       <c r="F9">
-        <v>0.8560557772477608</v>
+        <v>0.5165436681299411</v>
       </c>
       <c r="G9">
-        <v>0.000742807207103252</v>
+        <v>0.002357171177671451</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8519668211071405</v>
+        <v>0.8128610603524109</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.869317694778573</v>
+        <v>0.6686219202977952</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.421666084060035</v>
+        <v>1.593634836367357</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.118856357194886</v>
+        <v>2.091159653628495</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02750705852889723</v>
+        <v>0.009736839527960228</v>
       </c>
       <c r="E10">
-        <v>1.741977943039586</v>
+        <v>0.7922440681288094</v>
       </c>
       <c r="F10">
-        <v>1.028197730620292</v>
+        <v>0.5473880330635836</v>
       </c>
       <c r="G10">
-        <v>0.0007340730083319504</v>
+        <v>0.002351823306110737</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9607770416345716</v>
+        <v>0.8293661198542281</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.222087200461203</v>
+        <v>0.7788948607842769</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.910962733206247</v>
+        <v>1.671210754981075</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.488527005251797</v>
+        <v>2.207221420493795</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02940815340945591</v>
+        <v>0.01034414423066465</v>
       </c>
       <c r="E11">
-        <v>1.849918623855146</v>
+        <v>0.8272119715919501</v>
       </c>
       <c r="F11">
-        <v>1.109773551093767</v>
+        <v>0.5619651495510851</v>
       </c>
       <c r="G11">
-        <v>0.0007301768428138307</v>
+        <v>0.002349506680731002</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.013442300428238</v>
+        <v>0.8376902153685819</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.383602839477078</v>
+        <v>0.8289354134146265</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.144289432015313</v>
+        <v>1.708335001565246</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.628946572978293</v>
+        <v>2.251126832654052</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03012987457588423</v>
+        <v>0.01057385375043651</v>
       </c>
       <c r="E12">
-        <v>1.890804072128404</v>
+        <v>0.8404574359122279</v>
       </c>
       <c r="F12">
-        <v>1.141198030808752</v>
+        <v>0.5675644723948921</v>
       </c>
       <c r="G12">
-        <v>0.0007287114803798749</v>
+        <v>0.002348646044771669</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.033888211677905</v>
+        <v>0.8409596631423284</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.444947784438824</v>
+        <v>0.8478660490869458</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.234397863779037</v>
+        <v>1.72265978332149</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.598684130185291</v>
+        <v>2.24167303611398</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02997435113881863</v>
+        <v>0.01052439370776881</v>
       </c>
       <c r="E13">
-        <v>1.881998141950859</v>
+        <v>0.8376046418238872</v>
       </c>
       <c r="F13">
-        <v>1.134405402251772</v>
+        <v>0.5663550192196851</v>
       </c>
       <c r="G13">
-        <v>0.0007290266440602307</v>
+        <v>0.002348830660186136</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.029461662158425</v>
+        <v>0.8402503126071679</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.431727376191787</v>
+        <v>0.8437898413544644</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.214909927389755</v>
+        <v>1.719562781624319</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.500070256105914</v>
+        <v>2.21083445221268</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02946749090383349</v>
+        <v>0.01036304795813692</v>
       </c>
       <c r="E14">
-        <v>1.853282065281959</v>
+        <v>0.8283016155927214</v>
       </c>
       <c r="F14">
-        <v>1.112347784238011</v>
+        <v>0.5624242156905552</v>
       </c>
       <c r="G14">
-        <v>0.0007300560918447839</v>
+        <v>0.002349435542956088</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.015114036723787</v>
+        <v>0.837956844146504</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.388645867039799</v>
+        <v>0.8304932269277572</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.151666319478892</v>
+        <v>1.709508150038147</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.439725251713639</v>
+        <v>2.191939050922485</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02915727401914836</v>
+        <v>0.01026418416033437</v>
       </c>
       <c r="E15">
-        <v>1.835694106048791</v>
+        <v>0.8226036997109674</v>
       </c>
       <c r="F15">
-        <v>1.098908322375934</v>
+        <v>0.5600268337616683</v>
       </c>
       <c r="G15">
-        <v>0.000730687931903085</v>
+        <v>0.002349808213238491</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.006392646033916</v>
+        <v>0.8365673031334069</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.362281998720078</v>
+        <v>0.8223462125909293</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.113162539167405</v>
+        <v>1.703384205469149</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.094753787764262</v>
+        <v>2.083568609095948</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02738304870723596</v>
+        <v>0.009697114845344856</v>
       </c>
       <c r="E16">
-        <v>1.734925116364067</v>
+        <v>0.7899594656907425</v>
       </c>
       <c r="F16">
-        <v>1.022937614584649</v>
+        <v>0.5464464359813661</v>
       </c>
       <c r="G16">
-        <v>0.0007343290949639036</v>
+        <v>0.002351977033093142</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9574029219917009</v>
+        <v>0.8288385351186918</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.211555436278957</v>
+        <v>0.7756220351914749</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.89594778709619</v>
+        <v>1.668821756096975</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.883812073359366</v>
+        <v>2.017009561521775</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02629740922104418</v>
+        <v>0.009348786246931695</v>
       </c>
       <c r="E17">
-        <v>1.673122904267657</v>
+        <v>0.769941955289525</v>
       </c>
       <c r="F17">
-        <v>0.9772123798660743</v>
+        <v>0.5382556730409789</v>
       </c>
       <c r="G17">
-        <v>0.0007365818502436077</v>
+        <v>0.002353337223540723</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9281928367373382</v>
+        <v>0.8243061225265222</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.119378234924397</v>
+        <v>0.7469260575164185</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.765586976560229</v>
+        <v>1.648090702733157</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.762712102046862</v>
+        <v>1.978698837251329</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02567387767095397</v>
+        <v>0.009148277415796713</v>
       </c>
       <c r="E18">
-        <v>1.637581178912171</v>
+        <v>0.7584321308818147</v>
       </c>
       <c r="F18">
-        <v>0.9512158521214644</v>
+        <v>0.5335958945642716</v>
       </c>
       <c r="G18">
-        <v>0.0007378848974360516</v>
+        <v>0.002354130506374896</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9116869884255578</v>
+        <v>0.8217759916371961</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.066455982929227</v>
+        <v>0.7304093518518471</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.69160454356151</v>
+        <v>1.636339259043012</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.72174667658237</v>
+        <v>1.965722788667449</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02546290377753735</v>
+        <v>0.009080361751927057</v>
       </c>
       <c r="E19">
-        <v>1.625548205340948</v>
+        <v>0.7545357913617039</v>
       </c>
       <c r="F19">
-        <v>0.9424641437387749</v>
+        <v>0.532026965786244</v>
       </c>
       <c r="G19">
-        <v>0.0007383273749102891</v>
+        <v>0.00235440097945853</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9061476860908186</v>
+        <v>0.8209325232041351</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.048552886800451</v>
+        <v>0.7248151258671953</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.666720693515344</v>
+        <v>1.632389964708523</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.906243032682596</v>
+        <v>2.02409777024269</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02641288156615929</v>
+        <v>0.009385883055415434</v>
       </c>
       <c r="E20">
-        <v>1.679701294526993</v>
+        <v>0.7720724806627146</v>
       </c>
       <c r="F20">
-        <v>0.9820480645474134</v>
+        <v>0.5391222753615068</v>
       </c>
       <c r="G20">
-        <v>0.0007363412900994876</v>
+        <v>0.002353191297545448</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.931271436960813</v>
+        <v>0.8247806580563406</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.129180527884188</v>
+        <v>0.7499819942561032</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.779359410248929</v>
+        <v>1.650279684141566</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.529023131169481</v>
+        <v>2.219893720573907</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02961631521532837</v>
+        <v>0.01041044641402067</v>
       </c>
       <c r="E21">
-        <v>1.861716362386247</v>
+        <v>0.8310340477366651</v>
       </c>
       <c r="F21">
-        <v>1.118811625741401</v>
+        <v>0.5635766298944986</v>
       </c>
       <c r="G21">
-        <v>0.0007297534546804066</v>
+        <v>0.002349257423775554</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.019314240636817</v>
+        <v>0.8386273082245026</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.401294718699802</v>
+        <v>0.8343992779528264</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.170193178032889</v>
+        <v>1.71245418015198</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.938612657213525</v>
+        <v>2.347596428553231</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03172076962079728</v>
+        <v>0.01107851307956054</v>
       </c>
       <c r="E22">
-        <v>1.980737348192406</v>
+        <v>0.8695906909629372</v>
       </c>
       <c r="F22">
-        <v>1.211338080450034</v>
+        <v>0.58002146534659</v>
       </c>
       <c r="G22">
-        <v>0.0007255058326035783</v>
+        <v>0.002346783244825905</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.07981056612239</v>
+        <v>0.8483605729774126</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.580218404152902</v>
+        <v>0.8894618131125753</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.435952771949815</v>
+        <v>1.754644271144116</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.719744788545597</v>
+        <v>2.279463684251652</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03059644384448035</v>
+        <v>0.01072210065898105</v>
       </c>
       <c r="E23">
-        <v>1.917206860956853</v>
+        <v>0.8490108269818535</v>
       </c>
       <c r="F23">
-        <v>1.161644708377949</v>
+        <v>0.5712019671964157</v>
       </c>
       <c r="G23">
-        <v>0.0007277679425420598</v>
+        <v>0.002348094927520185</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.047235392973136</v>
+        <v>0.8431031931419284</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.48461274533426</v>
+        <v>0.8600841802238506</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.293092969774932</v>
+        <v>1.731983367632722</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.89610146214261</v>
+        <v>2.020893331211312</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02636067462664471</v>
+        <v>0.009369112366194088</v>
       </c>
       <c r="E24">
-        <v>1.676727238130837</v>
+        <v>0.7711092746599491</v>
       </c>
       <c r="F24">
-        <v>0.9798609482221821</v>
+        <v>0.5387303312562324</v>
       </c>
       <c r="G24">
-        <v>0.0007364500226258</v>
+        <v>0.002353257235635849</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9298787100818231</v>
+        <v>0.8245658850070612</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.124748690526729</v>
+        <v>0.7486004643934905</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.773129906630118</v>
+        <v>1.649289525303203</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.016133663246535</v>
+        <v>1.740931530175601</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02182492836451289</v>
+        <v>0.007903671744422525</v>
       </c>
       <c r="E25">
-        <v>1.417527211235807</v>
+        <v>0.6872285346630065</v>
       </c>
       <c r="F25">
-        <v>0.7951682797033754</v>
+        <v>0.5056635425087137</v>
       </c>
       <c r="G25">
-        <v>0.0007460984948300549</v>
+        <v>0.002359244126534825</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8144116476937313</v>
+        <v>0.8075065089843818</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.740124417117329</v>
+        <v>0.6279095568031039</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.249724679489617</v>
+        <v>1.566674280790323</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_172/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.533923325814044</v>
+        <v>3.372825599817816</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.006819927177946994</v>
+        <v>0.01850081022032413</v>
       </c>
       <c r="E2">
-        <v>0.6256421266332808</v>
+        <v>1.226744297336964</v>
       </c>
       <c r="F2">
-        <v>0.4829650877107099</v>
+        <v>0.6668639324919354</v>
       </c>
       <c r="G2">
-        <v>0.002364016048753207</v>
+        <v>0.0007534823485835472</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7974680776926135</v>
+        <v>0.7373794928785458</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5386825466486869</v>
+        <v>1.458837096399236</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.511383579394447</v>
+        <v>1.889681868402022</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.39310769697704</v>
+        <v>2.938548960264825</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006082749589296554</v>
+        <v>0.01625240288298713</v>
       </c>
       <c r="E3">
-        <v>0.5840387343000941</v>
+        <v>1.09745549749853</v>
       </c>
       <c r="F3">
-        <v>0.4685925045170052</v>
+        <v>0.5837669742707448</v>
       </c>
       <c r="G3">
-        <v>0.002367478910217889</v>
+        <v>0.0007586770120967957</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7922380670662861</v>
+        <v>0.68945274270299</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4779951572535026</v>
+        <v>1.26889782926051</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.477306341264352</v>
+        <v>1.658435304051409</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.306397238246859</v>
+        <v>2.672395017678184</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00562887778522736</v>
+        <v>0.01487258327611585</v>
       </c>
       <c r="E4">
-        <v>0.5585696683258448</v>
+        <v>1.018069712956688</v>
       </c>
       <c r="F4">
-        <v>0.4602603782579351</v>
+        <v>0.534366203222703</v>
       </c>
       <c r="G4">
-        <v>0.002369718658227406</v>
+        <v>0.0007619653822913303</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7898031826238565</v>
+        <v>0.6619255647451183</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4406296734420891</v>
+        <v>1.152469670722553</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.458037223939186</v>
+        <v>1.521828613662564</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.271001544175704</v>
+        <v>2.564013863256832</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.005443627510953064</v>
+        <v>0.01431029563046948</v>
       </c>
       <c r="E5">
-        <v>0.5482114612186422</v>
+        <v>0.9857191738443163</v>
       </c>
       <c r="F5">
-        <v>0.4569881227318788</v>
+        <v>0.5146038855798238</v>
       </c>
       <c r="G5">
-        <v>0.002370660012201982</v>
+        <v>0.0007633309325491735</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7890063475565299</v>
+        <v>0.65115686838611</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4253779117987051</v>
+        <v>1.105054195107613</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.450598296548208</v>
+        <v>1.467387006058175</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.265120527843578</v>
+        <v>2.546020749689887</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005412849644660156</v>
+        <v>0.01421692340052871</v>
       </c>
       <c r="E6">
-        <v>0.546492784095733</v>
+        <v>0.9803473966698277</v>
       </c>
       <c r="F6">
-        <v>0.4564521837111997</v>
+        <v>0.5113435597930192</v>
       </c>
       <c r="G6">
-        <v>0.002370818055627005</v>
+        <v>0.0007635592406450842</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7888858410223989</v>
+        <v>0.6493950338845877</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.422843884501674</v>
+        <v>1.097182167954543</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.449387959291357</v>
+        <v>1.458417570024068</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.305920121524139</v>
+        <v>2.670933090219648</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005626380600133984</v>
+        <v>0.01486500028791227</v>
       </c>
       <c r="E7">
-        <v>0.5584298881536256</v>
+        <v>1.017633422349562</v>
       </c>
       <c r="F7">
-        <v>0.4602157498134716</v>
+        <v>0.5340982375502747</v>
       </c>
       <c r="G7">
-        <v>0.002369731237365192</v>
+        <v>0.0007619836943977088</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7897916448127731</v>
+        <v>0.6617785538213354</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4404240829345838</v>
+        <v>1.151830112059088</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.457935229638025</v>
+        <v>1.521089589133368</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.485423034714415</v>
+        <v>3.222956017893694</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006566016825079402</v>
+        <v>0.01772529610177997</v>
       </c>
       <c r="E8">
-        <v>0.6112825530356503</v>
+        <v>1.182165938368627</v>
       </c>
       <c r="F8">
-        <v>0.4779067115458275</v>
+        <v>0.6378515628912709</v>
       </c>
       <c r="G8">
-        <v>0.002365186532596751</v>
+        <v>0.000755253368436293</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7955037300308589</v>
+        <v>0.720441978749605</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5177794800370634</v>
+        <v>1.393293439392011</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.499288772734332</v>
+        <v>1.808753167515363</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.835375289934859</v>
+        <v>4.311668852181015</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008398076470875537</v>
+        <v>0.02334960180346002</v>
       </c>
       <c r="E9">
-        <v>0.7154600416311467</v>
+        <v>1.504823361067679</v>
       </c>
       <c r="F9">
-        <v>0.5165436681299411</v>
+        <v>0.856055777247775</v>
       </c>
       <c r="G9">
-        <v>0.002357171177671451</v>
+        <v>0.0007428072070164596</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8128610603524109</v>
+        <v>0.8519668211071121</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6686219202977952</v>
+        <v>1.869317694778402</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.593634836367357</v>
+        <v>2.421666084060064</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.091159653628495</v>
+        <v>5.118856357194488</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.009736839527960228</v>
+        <v>0.0275070585291175</v>
       </c>
       <c r="E10">
-        <v>0.7922440681288094</v>
+        <v>1.741977943039558</v>
       </c>
       <c r="F10">
-        <v>0.5473880330635836</v>
+        <v>1.028197730620278</v>
       </c>
       <c r="G10">
-        <v>0.002351823306110737</v>
+        <v>0.0007340730083594735</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8293661198542281</v>
+        <v>0.9607770416345573</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7788948607842769</v>
+        <v>2.222087200461146</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.671210754981075</v>
+        <v>2.910962733206304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.207221420493795</v>
+        <v>5.488527005251456</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01034414423066465</v>
+        <v>0.02940815340942038</v>
       </c>
       <c r="E11">
-        <v>0.8272119715919501</v>
+        <v>1.849918623855174</v>
       </c>
       <c r="F11">
-        <v>0.5619651495510851</v>
+        <v>1.109773551093781</v>
       </c>
       <c r="G11">
-        <v>0.002349506680731002</v>
+        <v>0.0007301768427802464</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8376902153685819</v>
+        <v>1.013442300428252</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8289354134146265</v>
+        <v>2.383602839477163</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.708335001565246</v>
+        <v>3.144289432015313</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.251126832654052</v>
+        <v>5.628946572978634</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01057385375043651</v>
+        <v>0.03012987457577054</v>
       </c>
       <c r="E12">
-        <v>0.8404574359122279</v>
+        <v>1.890804072128361</v>
       </c>
       <c r="F12">
-        <v>0.5675644723948921</v>
+        <v>1.141198030808752</v>
       </c>
       <c r="G12">
-        <v>0.002348646044771669</v>
+        <v>0.0007287114804069295</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8409596631423284</v>
+        <v>1.033888211677905</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8478660490869458</v>
+        <v>2.444947784438767</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.72265978332149</v>
+        <v>3.234397863779122</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.24167303611398</v>
+        <v>5.598684130185688</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01052439370776881</v>
+        <v>0.02997435113881863</v>
       </c>
       <c r="E13">
-        <v>0.8376046418238872</v>
+        <v>1.881998141950831</v>
       </c>
       <c r="F13">
-        <v>0.5663550192196851</v>
+        <v>1.134405402251772</v>
       </c>
       <c r="G13">
-        <v>0.002348830660186136</v>
+        <v>0.0007290266440267874</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8402503126071679</v>
+        <v>1.029461662158454</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8437898413544644</v>
+        <v>2.431727376191759</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.719562781624319</v>
+        <v>3.214909927389698</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.21083445221268</v>
+        <v>5.500070256105289</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01036304795813692</v>
+        <v>0.02946749090383349</v>
       </c>
       <c r="E14">
-        <v>0.8283016155927214</v>
+        <v>1.853282065281917</v>
       </c>
       <c r="F14">
-        <v>0.5624242156905552</v>
+        <v>1.112347784238011</v>
       </c>
       <c r="G14">
-        <v>0.002349435542956088</v>
+        <v>0.0007300560918726124</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.837956844146504</v>
+        <v>1.015114036723787</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8304932269277572</v>
+        <v>2.388645867039912</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.709508150038147</v>
+        <v>3.151666319478835</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.191939050922485</v>
+        <v>5.439725251713298</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01026418416033437</v>
+        <v>0.02915727401914125</v>
       </c>
       <c r="E15">
-        <v>0.8226036997109674</v>
+        <v>1.835694106048805</v>
       </c>
       <c r="F15">
-        <v>0.5600268337616683</v>
+        <v>1.098908322375934</v>
       </c>
       <c r="G15">
-        <v>0.002349808213238491</v>
+        <v>0.0007306879319310347</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8365673031334069</v>
+        <v>1.006392646033945</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8223462125909293</v>
+        <v>2.362281998720022</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.703384205469149</v>
+        <v>3.113162539167348</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.083568609095948</v>
+        <v>5.094753787764489</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.009697114845344856</v>
+        <v>0.0273830487072928</v>
       </c>
       <c r="E16">
-        <v>0.7899594656907425</v>
+        <v>1.734925116364053</v>
       </c>
       <c r="F16">
-        <v>0.5464464359813661</v>
+        <v>1.022937614584635</v>
       </c>
       <c r="G16">
-        <v>0.002351977033093142</v>
+        <v>0.0007343290950192331</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8288385351186918</v>
+        <v>0.9574029219916582</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7756220351914749</v>
+        <v>2.21155543627907</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.668821756096975</v>
+        <v>2.895947787096162</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.017009561521775</v>
+        <v>4.883812073359536</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009348786246931695</v>
+        <v>0.02629740922103707</v>
       </c>
       <c r="E17">
-        <v>0.769941955289525</v>
+        <v>1.673122904267643</v>
       </c>
       <c r="F17">
-        <v>0.5382556730409789</v>
+        <v>0.9772123798660886</v>
       </c>
       <c r="G17">
-        <v>0.002353337223540723</v>
+        <v>0.0007365818502392778</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8243061225265222</v>
+        <v>0.9281928367373666</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7469260575164185</v>
+        <v>2.119378234924483</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.648090702733157</v>
+        <v>2.765586976560257</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.978698837251329</v>
+        <v>4.762712102047146</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.009148277415796713</v>
+        <v>0.0256738776711245</v>
       </c>
       <c r="E18">
-        <v>0.7584321308818147</v>
+        <v>1.637581178912171</v>
       </c>
       <c r="F18">
-        <v>0.5335958945642716</v>
+        <v>0.9512158521214644</v>
       </c>
       <c r="G18">
-        <v>0.002354130506374896</v>
+        <v>0.0007378848974353091</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8217759916371961</v>
+        <v>0.9116869884255436</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7304093518518471</v>
+        <v>2.066455982929341</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.636339259043012</v>
+        <v>2.69160454356151</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.965722788667449</v>
+        <v>4.721746676582825</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.009080361751927057</v>
+        <v>0.02546290377762972</v>
       </c>
       <c r="E19">
-        <v>0.7545357913617039</v>
+        <v>1.62554820534092</v>
       </c>
       <c r="F19">
-        <v>0.532026965786244</v>
+        <v>0.9424641437387891</v>
       </c>
       <c r="G19">
-        <v>0.00235440097945853</v>
+        <v>0.0007383273748784748</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8209325232041351</v>
+        <v>0.9061476860908044</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7248151258671953</v>
+        <v>2.048552886800508</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.632389964708523</v>
+        <v>2.666720693515401</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.02409777024269</v>
+        <v>4.906243032682539</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009385883055415434</v>
+        <v>0.02641288156626587</v>
       </c>
       <c r="E20">
-        <v>0.7720724806627146</v>
+        <v>1.679701294526964</v>
       </c>
       <c r="F20">
-        <v>0.5391222753615068</v>
+        <v>0.9820480645473992</v>
       </c>
       <c r="G20">
-        <v>0.002353191297545448</v>
+        <v>0.0007363412901000086</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8247806580563406</v>
+        <v>0.931271436960813</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7499819942561032</v>
+        <v>2.129180527884074</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.650279684141566</v>
+        <v>2.779359410248958</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.219893720573907</v>
+        <v>5.529023131169424</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01041044641402067</v>
+        <v>0.02961631521533548</v>
       </c>
       <c r="E21">
-        <v>0.8310340477366651</v>
+        <v>1.861716362386233</v>
       </c>
       <c r="F21">
-        <v>0.5635766298944986</v>
+        <v>1.118811625741387</v>
       </c>
       <c r="G21">
-        <v>0.002349257423775554</v>
+        <v>0.0007297534547476418</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8386273082245026</v>
+        <v>1.019314240636803</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8343992779528264</v>
+        <v>2.401294718699944</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.71245418015198</v>
+        <v>3.170193178032889</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.347596428553231</v>
+        <v>5.93861265721381</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01107851307956054</v>
+        <v>0.03172076962079018</v>
       </c>
       <c r="E22">
-        <v>0.8695906909629372</v>
+        <v>1.980737348192378</v>
       </c>
       <c r="F22">
-        <v>0.58002146534659</v>
+        <v>1.211338080450034</v>
       </c>
       <c r="G22">
-        <v>0.002346783244825905</v>
+        <v>0.0007255058326026687</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8483605729774126</v>
+        <v>1.079810566122376</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8894618131125753</v>
+        <v>2.580218404152873</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.754644271144116</v>
+        <v>3.435952771949815</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.279463684251652</v>
+        <v>5.719744788546052</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01072210065898105</v>
+        <v>0.03059644384448745</v>
       </c>
       <c r="E23">
-        <v>0.8490108269818535</v>
+        <v>1.917206860956838</v>
       </c>
       <c r="F23">
-        <v>0.5712019671964157</v>
+        <v>1.161644708377949</v>
       </c>
       <c r="G23">
-        <v>0.002348094927520185</v>
+        <v>0.0007277679425145012</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8431031931419284</v>
+        <v>1.047235392973121</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8600841802238506</v>
+        <v>2.484612745334175</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.731983367632722</v>
+        <v>3.293092969774904</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.020893331211312</v>
+        <v>4.896101462142781</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.009369112366194088</v>
+        <v>0.0263606746267584</v>
       </c>
       <c r="E24">
-        <v>0.7711092746599491</v>
+        <v>1.676727238130837</v>
       </c>
       <c r="F24">
-        <v>0.5387303312562324</v>
+        <v>0.9798609482221821</v>
       </c>
       <c r="G24">
-        <v>0.002353257235635849</v>
+        <v>0.0007364500225976904</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8245658850070612</v>
+        <v>0.9298787100818231</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7486004643934905</v>
+        <v>2.124748690526758</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.649289525303203</v>
+        <v>2.773129906630118</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.740931530175601</v>
+        <v>4.016133663246137</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.007903671744422525</v>
+        <v>0.02182492836456618</v>
       </c>
       <c r="E25">
-        <v>0.6872285346630065</v>
+        <v>1.417527211235765</v>
       </c>
       <c r="F25">
-        <v>0.5056635425087137</v>
+        <v>0.7951682797033612</v>
       </c>
       <c r="G25">
-        <v>0.002359244126534825</v>
+        <v>0.0007460984948285311</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8075065089843818</v>
+        <v>0.8144116476937313</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6279095568031039</v>
+        <v>1.740124417117158</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.566674280790323</v>
+        <v>2.249724679489532</v>
       </c>
     </row>
   </sheetData>
